--- a/Module_20.2/Тест-кейсы_20.2.xlsx
+++ b/Module_20.2/Тест-кейсы_20.2.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="21435" yWindow="1815" windowWidth="15600" windowHeight="11385" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Тест-кейс" sheetId="1" r:id="rId1"/>
+    <sheet name="Тест-кейс GET" sheetId="1" r:id="rId1"/>
+    <sheet name="Тест-кейс POST" sheetId="2" r:id="rId2"/>
+    <sheet name="Тест-кейс PUT" sheetId="3" r:id="rId3"/>
+    <sheet name="Тест-кейс DELETE" sheetId="4" r:id="rId4"/>
+    <sheet name="Users Story" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>Number</t>
   </si>
@@ -235,17 +248,2060 @@
   <si>
     <t>QAP93-6</t>
   </si>
+  <si>
+    <t>QAP93-7</t>
+  </si>
+  <si>
+    <t>QAP93-8</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задание 20.3. - Тест кейсы на основании документации API приложения PetFriends API v1 </t>
+  </si>
+  <si>
+    <t>/api/create_pet_simple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String params:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Базовый позитивный тест</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auth_key: спецсимволы</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+String params:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+  </si>
+  <si>
+    <t>Код ответа:
+    - 403 Forbidden
+Заголовки ответа
+    - access-control-allow-origin
+    - content-length: 154
+    - content-type: text/html; charset=utf-8
+    - date: &lt;date&gt;
+    - vary: Origin
+Тело ответа:
+    - HTML-код c сообщением что ключ не верен
+&lt;p&gt;Please provide &amp;#x27;auth_key&amp;#x27; Header&lt;/p&gt;
+Время выполнения: 
+    - не дольше 1с</t>
+  </si>
+  <si>
+    <t>Код ответа:
+    - 200 ОК
+Тело ответа:
+    - В теле приходит json с корректной структурой
+В теле приходят следующие поля в объектах pets:
+    - _id: string,
+    - age: sting (параметр переданный в запросе), 
+    - animal_type: sting (параметр переданный в запросе),
+    - created_at: строка со снимком времени (timestamp),
+    - id: uuid,
+    - name: sting (параметр переданный в запросе),
+    - pet_photo: пустрая строка,
+    - user_id: guid
+Заголовки ответа
+    - access-control-allow-origin
+    - content-length: 301
+    - content-type: application/json
+    - date: &lt;date&gt;
+    - vary: Origin
+Время выполнения: не дольше 1с</t>
+  </si>
+  <si>
+    <t>Негативный тест со спецсимволами в поле auth_key</t>
+  </si>
+  <si>
+    <t>QAP93-9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: число
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+  </si>
+  <si>
+    <t>Негативный тест с целыми числами в поле auth_key</t>
+  </si>
+  <si>
+    <t>Headers:
+auth_key: ключ с истекшим сроком действия
+String params:
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+  </si>
+  <si>
+    <t>Негативный тест с ключем с  истекшим сроком действия</t>
+  </si>
+  <si>
+    <t>Негативный тест кириллицей в поле auth_key</t>
+  </si>
+  <si>
+    <t>QAP93-10</t>
+  </si>
+  <si>
+    <t>QAP93-11</t>
+  </si>
+  <si>
+    <t>QAP93-12</t>
+  </si>
+  <si>
+    <t>Негативный тест со спецсимволами в поле name</t>
+  </si>
+  <si>
+    <t>Код ответа:
+    - 400
+Заголовки ответа
+    - access-control-allow-origin
+    - content-length: 154
+    - content-type: text/html; charset=utf-8
+    - date: &lt;date&gt;
+    - vary: Origin
+Тело ответа:
+    - HTML-код c сообщением что передаваемые данные не корректны
+Время выполнения: не дольше 1с</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: спецсиволы
+animal_type: Корректный тип питомца
+age: корректный возраст
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: кодировка (кириллица и тд.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: число
+animal_type: Корректный тип питомца
+age: корректный возраст
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <t>Негативный тест с числом и в поле name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: 
+animal_type: Корректный тип питомца
+age: корректный возраст
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-14</t>
+  </si>
+  <si>
+    <t>Негативный тест с пустой строкой в поле name</t>
+  </si>
+  <si>
+    <t>QAP93-15</t>
+  </si>
+  <si>
+    <t>/api/pets/{pet_id}</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Path params:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pet_id: корректный id питомца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String params:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Код ответа:
+    - 200 ОК
+Тело ответа:
+    - В теле приходит json с корректной структурой
+В теле приходят следующие поля в объектах pets:
+    - age: sting (параметр переданный в запросе), 
+    - animal_type: sting (параметр переданный в запросе),
+    - created_at: строка со снимком времени (timestamp),
+    - id: uuid,
+    - name: sting (параметр переданный в запросе),
+    - pet_photo: пустрая строка,
+    - user_id: guid
+Заголовки ответа
+    - access-control-allow-origin
+    - content-length: 301
+    - content-type: application/json
+    - date: &lt;date&gt;
+    - vary: Origin
+Время выполнения: не дольше 1с</t>
+  </si>
+  <si>
+    <t>QAP93-16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key:  спецсимволы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст
+</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: число
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: ключ с истекшим сроком действия
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-19</t>
+  </si>
+  <si>
+    <t>QAP93-20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: кодировка (кириллица и тд.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: корректный возраст</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-21</t>
+  </si>
+  <si>
+    <t>QAP93-22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: 
+animal_type: Корректный тип питомца
+age: корректный возраст
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: число
+animal_type: Корректный тип питомца
+age: корректный возраст
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Path params:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: спецсиволы
+animal_type: Корректный тип питомца
+age: корректный возраст
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: число типа float
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <t>Негативный тест с числом типа float в поле age</t>
+  </si>
+  <si>
+    <t>QAP93-24</t>
+  </si>
+  <si>
+    <t>QAP93-25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: некорректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: число типа float
+* такие же тесты делаем для полей animal_type и age</t>
+    </r>
+  </si>
+  <si>
+    <t>Код ответа:
+    - 400
+Заголовки ответа
+    - access-control-allow-origin
+    - content-length: 154
+    - content-type: text/html; charset=utf-8
+    - date: &lt;date&gt;
+    - vary: Origin
+Тело ответа:
+    - HTML-код c сообщением что питомец с таким id не найден
+Время выполнения: не дольше 1с</t>
+  </si>
+  <si>
+    <t>Негативный тест с некорректным id питомца</t>
+  </si>
+  <si>
+    <t>QAP93-26</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">auth_key: Корректный ключ API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Path params:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pet_id: корректный id питомца</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Код ответа:
+    - 200 ОК
+Заголовки ответа
+    - access-control-allow-origin
+    - content-length: 0
+    - content-type: text/html; charset=utf-8
+    - date: &lt;date&gt;
+    - status: 200
+    - vary: Origin
+Время выполнения: не дольше 1с</t>
+  </si>
+  <si>
+    <t>Headers:
+auth_key: Корректный ключ API
+Path params:
+pet_id: пустое значение
+String params:
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: число типа float
+* такие же тесты делаем для полей animal_type и age</t>
+  </si>
+  <si>
+    <t>Негативный тест с некорректным id питомца (пустое значение)</t>
+  </si>
+  <si>
+    <t>Headers:
+auth_key: Корректный ключ API
+Path params:
+pet_id: число
+String params:
+name: Корректное имя
+animal_type: Корректный тип питомца
+age: число типа float
+* такие же тесты делаем для полей animal_type и age</t>
+  </si>
+  <si>
+    <t>Негативный тест с некорректным id питомца (тип значения - число)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key:  спецсимволы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-27</t>
+  </si>
+  <si>
+    <t>QAP93-28</t>
+  </si>
+  <si>
+    <t>QAP93-29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: число
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: ключ с истекшим сроком действия
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+  </si>
+  <si>
+    <t>QAP93-31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Headers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth_key: кодировка (кириллица и тд.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path params:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pet_id: корректный id питомца
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Предисловие</t>
+  </si>
+  <si>
+    <t>Шаги для повторения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В системе создан пользователь с ником Nickname и паролем pass_w0rd</t>
+  </si>
+  <si>
+    <t>Ожидание</t>
+  </si>
+  <si>
+    <t>В ответ на запрос приходит список всех питомцев в приложении</t>
+  </si>
+  <si>
+    <t>User Story №1 "Как пользователь приложения я хочу посмотреть список всех питомцев"</t>
+  </si>
+  <si>
+    <t>В ответ на запрос приходит список всех созданных мною питомцев в приложении</t>
+  </si>
+  <si>
+    <t>User Story №2 "Как пользователь приложения я хочу посмотреть список всех своих питомцев"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с верными данными. Получаем сессионный ключ пользователя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/pets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с корректными данными. Получаем список всех созданных питомцев</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/pets?filter=my_pets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с корректными данными. Получаем список всех своих питомцев</t>
+    </r>
+  </si>
+  <si>
+    <t>User Story №3 "Как пользователь приложения я хочу изменить данные моего питомца"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PUT /api/pets/{pet_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с новыми данными. Получаем питомца с обновленной информацией</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/pets?filter=my_pets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с верными данными. Получаем список своих питомцев среди которых питомец с обновленной информацией</t>
+    </r>
+  </si>
+  <si>
+    <t>В системе создан пользователь с ником Nickname и паролем pass_w0rd</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DELETE /api/pets/{pet_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с данными удаляемого питомца. Выбранный нами питомец удален.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/pets?filter=my_pets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с верными данными. Получаем список своих питомцев среди которых удаленный питомец отсутствует</t>
+    </r>
+  </si>
+  <si>
+    <t>User Story №4 "Как пользователь приложения я хочу удалить моего питомца"</t>
+  </si>
+  <si>
+    <t>User Story №5 "Как пользователь приложения я хочу оперативно создать питомца"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выполнить запрос </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET /api/pets?filter=my_pets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с верными данными. Получаем список своих питомцев среди которых вновь созданный питомец</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Выполнить запрос создания питомца </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST /api/create_pet_simple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с корректными данными. Получаем id созданного пользователем питомца</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,8 +2353,55 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +2438,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -383,105 +2492,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +3174,7 @@
       <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="23" t="s">
@@ -1012,4 +3330,1237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://petfriends.skillfactory.ru/api/key"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="71"/>
+      <c r="C32" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="77"/>
+      <c r="C33" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="71"/>
+      <c r="C36" s="73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>